--- a/Track B/Unit 5 - SQL_ Relational Databases/mini project/Insurance_Sample Data.xlsx
+++ b/Track B/Unit 5 - SQL_ Relational Databases/mini project/Insurance_Sample Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NITEEN\Training\Laguardia College\CUNY LaGuardia-20200312T205826Z-001\CUNY LaGuardia\Overview\New\Micro Credential\Course\version 3\Track A\Unit 5 - SQL_ Relational Databases\mini project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EverUp Program\cuny_lagcc_micro_credential_data_analytics\cuny_lagcc_micro_credential_data_analytics\Track B\Unit 5 - SQL_ Relational Databases\mini project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12FD7DE8-D1C9-48BC-B5DE-A678459F5C6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D18DC81-B74E-430F-A464-951736E2266A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{66FC1BB2-C3AD-4DEB-A788-CBE649D8FA9D}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{66FC1BB2-C3AD-4DEB-A788-CBE649D8FA9D}"/>
   </bookViews>
   <sheets>
     <sheet name="sample data" sheetId="2" r:id="rId1"/>
@@ -639,23 +639,24 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.81640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7265625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="20.1796875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7265625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="23.26953125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.26953125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
@@ -862,6 +863,7 @@
         <v>44055</v>
       </c>
     </row>
+    <row r="9" spans="1:13" ht="135.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>44</v>
@@ -1028,6 +1030,7 @@
         <v>50</v>
       </c>
     </row>
+    <row r="17" spans="1:8" ht="155.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>45</v>
@@ -1222,6 +1225,7 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="28" spans="1:8" ht="101" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>51</v>
@@ -1320,6 +1324,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A1192F6A115BDB428A291EA2F52C2F02" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fbdc4a9643513c82a52647242de2f3c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="768472ad-6a74-4580-a156-3bca4462b049" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31af3e3c7640f7f4cc1f0a59126d5093" ns3:_="">
     <xsd:import namespace="768472ad-6a74-4580-a156-3bca4462b049"/>
@@ -1503,22 +1522,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DE4FE3-B79D-42A4-8588-7ECB4AF40C0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E318BBD-AB92-43CC-880E-2639CD3BA627}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D951F49-BC21-4DC6-AB21-7B37CF9B5E42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1534,21 +1555,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E318BBD-AB92-43CC-880E-2639CD3BA627}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1DE4FE3-B79D-42A4-8588-7ECB4AF40C0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>